--- a/excel_with_subclasses/without_zeros/current_(fluid)_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/current_(fluid)_with_count_without_zeros.xlsx
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q129558</t>
@@ -467,9 +467,6 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>81</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -481,9 +478,6 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -495,9 +489,6 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -509,9 +500,6 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -523,9 +511,6 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -537,9 +522,6 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -550,9 +532,6 @@
       </c>
       <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
